--- a/Analyse Output.xlsx
+++ b/Analyse Output.xlsx
@@ -362,7 +362,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP23"/>
+  <dimension ref="A1:BP22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -715,7 +715,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEWAN HOUSING</t>
+          <t>BANK OF BARODA</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -725,68 +725,68 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="L2" t="n">
+        <v>21</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="n">
+        <v>0</v>
+      </c>
+      <c r="X2" t="n">
         <v>3</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1</v>
-      </c>
       <c r="Y2" t="n">
         <v>0</v>
       </c>
@@ -794,112 +794,112 @@
         <v>0</v>
       </c>
       <c r="AA2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ2" t="n">
         <v>2</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AW2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BB2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI2" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ2" t="n">
-        <v>1</v>
       </c>
       <c r="BK2" t="n">
         <v>0</v>
@@ -1131,23 +1131,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>PI INDUSTRIES</t>
+          <t>BHARTI AIRTEL</t>
         </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -1162,10 +1162,10 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M4" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -1231,10 +1231,10 @@
         <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="n">
         <v>0</v>
@@ -1243,10 +1243,10 @@
         <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM4" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AN4" t="n">
         <v>0</v>
@@ -1273,10 +1273,10 @@
         <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX4" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>PI INDUSTRIES</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1557,31 +1557,31 @@
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1596,7 +1596,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -1608,7 +1608,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1617,7 +1617,7 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
@@ -1638,19 +1638,19 @@
         <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
         <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
         <v>0</v>
@@ -1659,10 +1659,10 @@
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AN6" t="n">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB6" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BK6" t="n">
         <v>0</v>
@@ -1755,7 +1755,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BHARTI AIRTEL</t>
+          <t>DEWAN HOUSING</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1786,10 +1786,10 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1825,7 +1825,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1834,7 +1834,7 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AB7" t="n">
         <v>0</v>
@@ -1843,7 +1843,7 @@
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE7" t="n">
         <v>0</v>
@@ -1870,7 +1870,7 @@
         <v>0</v>
       </c>
       <c r="AM7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN7" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW7" t="n">
         <v>0</v>
@@ -1939,7 +1939,7 @@
         <v>0</v>
       </c>
       <c r="BJ7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
@@ -1963,7 +1963,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TATA STEEL</t>
+          <t>TATA MOTORS</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1994,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -2066,7 +2066,7 @@
         <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
         <v>0</v>
@@ -2078,7 +2078,7 @@
         <v>0</v>
       </c>
       <c r="AM8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AN8" t="n">
         <v>0</v>
@@ -2171,7 +2171,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>TATA MOTORS</t>
+          <t>TATA STEEL</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -2202,7 +2202,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -2274,7 +2274,7 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="AM9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AN9" t="n">
         <v>0</v>
@@ -2395,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -2410,47 +2410,47 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>14</v>
+      </c>
+      <c r="L10" t="n">
+        <v>14</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0</v>
+      </c>
+      <c r="X10" t="n">
         <v>3</v>
       </c>
-      <c r="L10" t="n">
-        <v>1</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
-      </c>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
@@ -2467,22 +2467,22 @@
         <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG10" t="n">
         <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AJ10" t="n">
         <v>0</v>
@@ -2491,10 +2491,10 @@
         <v>0</v>
       </c>
       <c r="AL10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM10" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AN10" t="n">
         <v>0</v>
@@ -2563,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="BJ10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" t="n">
         <v>0</v>
@@ -2587,7 +2587,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BHARAT PETROLEUM CORPORATION</t>
+          <t>ABB INDIA LTD</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -2687,7 +2687,7 @@
         <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
@@ -2702,7 +2702,7 @@
         <v>0</v>
       </c>
       <c r="AM11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AN11" t="n">
         <v>0</v>
@@ -2795,7 +2795,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>COAL INDIA</t>
+          <t>INDIABULLS VENTURES LTD.</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -2826,11 +2826,11 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" t="n">
         <v>2</v>
       </c>
-      <c r="L12" t="n">
-        <v>5</v>
-      </c>
       <c r="M12" t="n">
         <v>0</v>
       </c>
@@ -2841,10 +2841,10 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -2856,7 +2856,7 @@
         <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2895,7 +2895,7 @@
         <v>0</v>
       </c>
       <c r="AH12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI12" t="n">
         <v>0</v>
@@ -2910,7 +2910,7 @@
         <v>0</v>
       </c>
       <c r="AM12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN12" t="n">
         <v>0</v>
@@ -3003,7 +3003,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INDIABULLS VENTURES LTD.</t>
+          <t>OIL INDIA LTD.</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -3013,7 +3013,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -3025,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -3088,7 +3088,7 @@
         <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD13" t="n">
         <v>0</v>
@@ -3103,10 +3103,10 @@
         <v>0</v>
       </c>
       <c r="AH13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ13" t="n">
         <v>0</v>
@@ -3211,41 +3211,41 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ICICI BANK LTD.</t>
+          <t>COAL INDIA LTD.</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="L14" t="n">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -3257,10 +3257,10 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -3272,7 +3272,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -3290,7 +3290,7 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB14" t="n">
         <v>0</v>
@@ -3299,35 +3299,35 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AF14" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AG14" t="n">
         <v>0</v>
       </c>
       <c r="AH14" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM14" t="n">
         <v>2</v>
       </c>
-      <c r="AI14" t="n">
-        <v>6</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AK14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL14" t="n">
-        <v>4</v>
-      </c>
-      <c r="AM14" t="n">
-        <v>12</v>
-      </c>
       <c r="AN14" t="n">
         <v>0</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="BA14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BB14" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="BJ14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BK14" t="n">
         <v>0</v>
@@ -3407,7 +3407,7 @@
         <v>0</v>
       </c>
       <c r="BN14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BO14" t="n">
         <v>0</v>
@@ -3534,7 +3534,7 @@
         <v>0</v>
       </c>
       <c r="AM15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AN15" t="n">
         <v>0</v>
@@ -4043,23 +4043,23 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>OIL INDIA LTD.</t>
+          <t>ICICI BANK LTD.</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -4074,79 +4074,79 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="L18" t="n">
+        <v>22</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="T18" t="n">
+        <v>0</v>
+      </c>
+      <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
+        <v>0</v>
+      </c>
+      <c r="X18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>3</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH18" t="n">
         <v>2</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>1</v>
-      </c>
-      <c r="R18" t="n">
-        <v>0</v>
-      </c>
-      <c r="S18" t="n">
-        <v>0</v>
-      </c>
-      <c r="T18" t="n">
-        <v>0</v>
-      </c>
-      <c r="U18" t="n">
-        <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>0</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
-      </c>
-      <c r="X18" t="n">
-        <v>1</v>
-      </c>
-      <c r="Y18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC18" t="n">
-        <v>1</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH18" t="n">
-        <v>1</v>
-      </c>
       <c r="AI18" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AJ18" t="n">
         <v>0</v>
@@ -4155,10 +4155,10 @@
         <v>0</v>
       </c>
       <c r="AL18" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AM18" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AN18" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>0</v>
       </c>
       <c r="BA18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BB18" t="n">
         <v>0</v>
@@ -4227,7 +4227,7 @@
         <v>0</v>
       </c>
       <c r="BJ18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18" t="n">
         <v>0</v>
@@ -4239,7 +4239,7 @@
         <v>0</v>
       </c>
       <c r="BN18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BO18" t="n">
         <v>0</v>
@@ -4251,41 +4251,41 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>BHARTI AIRTEL LTD.</t>
+          <t>mean</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="C19" t="n">
-        <v>1</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="D19" t="n">
-        <v>1</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4</v>
+        <v>2.823529411764706</v>
       </c>
       <c r="L19" t="n">
-        <v>9</v>
+        <v>5.941176470588236</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -4297,10 +4297,10 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>0.2352941176470588</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -4321,7 +4321,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -4330,43 +4330,43 @@
         <v>0</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="AB19" t="n">
         <v>0</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>0.4117647058823529</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>0.3529411764705883</v>
       </c>
       <c r="AG19" t="n">
         <v>0</v>
       </c>
       <c r="AH19" t="n">
-        <v>1</v>
+        <v>1.647058823529412</v>
       </c>
       <c r="AI19" t="n">
-        <v>1</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="AJ19" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0.5294117647058824</v>
       </c>
       <c r="AM19" t="n">
-        <v>5</v>
+        <v>2.529411764705882</v>
       </c>
       <c r="AN19" t="n">
         <v>0</v>
@@ -4393,10 +4393,10 @@
         <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>1</v>
+        <v>0.1764705882352941</v>
       </c>
       <c r="AW19" t="n">
-        <v>1</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="AX19" t="n">
         <v>0</v>
@@ -4408,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="BA19" t="n">
-        <v>0</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="BB19" t="n">
         <v>0</v>
@@ -4435,7 +4435,7 @@
         <v>0</v>
       </c>
       <c r="BJ19" t="n">
-        <v>0</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="BK19" t="n">
         <v>0</v>
@@ -4447,7 +4447,7 @@
         <v>0</v>
       </c>
       <c r="BN19" t="n">
-        <v>0</v>
+        <v>0.05882352941176471</v>
       </c>
       <c r="BO19" t="n">
         <v>0</v>
@@ -4459,41 +4459,41 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>mean</t>
+          <t>std</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.242535625036333</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3321055820775357</v>
       </c>
       <c r="D20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.4372373160976031</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3321055820775357</v>
       </c>
       <c r="F20" t="n">
-        <v>0.5</v>
+        <v>1.159994928995001</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7859052479933757</v>
       </c>
       <c r="I20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.7859052479933757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>2.111111111111111</v>
+        <v>3.92484544469026</v>
       </c>
       <c r="L20" t="n">
-        <v>4.666666666666667</v>
+        <v>7.39485114991585</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -4505,10 +4505,10 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.4372373160976031</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3321055820775357</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.562295714538387</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -4529,7 +4529,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0.3888888888888889</v>
+        <v>1.003669737103033</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -4538,43 +4538,43 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8617697249402122</v>
       </c>
       <c r="AB20" t="n">
         <v>0</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.242535625036333</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3929526239966879</v>
       </c>
       <c r="AE20" t="n">
-        <v>0.3333333333333333</v>
+        <v>0.8702602720890289</v>
       </c>
       <c r="AF20" t="n">
-        <v>0.2777777777777778</v>
+        <v>0.9963167462326072</v>
       </c>
       <c r="AG20" t="n">
         <v>0</v>
       </c>
       <c r="AH20" t="n">
-        <v>1.055555555555556</v>
+        <v>2.44798836983012</v>
       </c>
       <c r="AI20" t="n">
-        <v>1.055555555555556</v>
+        <v>1.862951484954484</v>
       </c>
       <c r="AJ20" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.242535625036333</v>
       </c>
       <c r="AK20" t="n">
         <v>0</v>
       </c>
       <c r="AL20" t="n">
-        <v>0.4444444444444444</v>
+        <v>1.067570083110678</v>
       </c>
       <c r="AM20" t="n">
-        <v>2.166666666666667</v>
+        <v>3.374863831675723</v>
       </c>
       <c r="AN20" t="n">
         <v>0</v>
@@ -4601,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>0.1666666666666667</v>
+        <v>0.3929526239966879</v>
       </c>
       <c r="AW20" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.2425356250363331</v>
       </c>
       <c r="AX20" t="n">
         <v>0</v>
@@ -4616,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="BA20" t="n">
-        <v>0.1111111111111111</v>
+        <v>0.3321055820775357</v>
       </c>
       <c r="BB20" t="n">
         <v>0</v>
@@ -4643,7 +4643,7 @@
         <v>0</v>
       </c>
       <c r="BJ20" t="n">
-        <v>0.2222222222222222</v>
+        <v>0.5878675320972556</v>
       </c>
       <c r="BK20" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="BN20" t="n">
-        <v>0.05555555555555555</v>
+        <v>0.242535625036333</v>
       </c>
       <c r="BO20" t="n">
         <v>0</v>
@@ -4667,41 +4667,41 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>std</t>
+          <t>max_red</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.2357022603955158</v>
+        <v>0.4226269669662642</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3233808333817773</v>
+        <v>0.6158054319398329</v>
       </c>
       <c r="D21" t="n">
-        <v>0.4277926319464986</v>
+        <v>0.8911500917934634</v>
       </c>
       <c r="E21" t="n">
-        <v>0.3233808333817774</v>
+        <v>0.6158054319398329</v>
       </c>
       <c r="F21" t="n">
-        <v>1.098126747211439</v>
+        <v>2.445874746433678</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7669649888473704</v>
+        <v>1.531799048460652</v>
       </c>
       <c r="I21" t="n">
-        <v>0.7669649888473704</v>
+        <v>1.531799048460652</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>2.784175638663643</v>
+        <v>8.710797578800095</v>
       </c>
       <c r="L21" t="n">
-        <v>7.308335289645813</v>
+        <v>17.03345319546201</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -4713,10 +4713,10 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0.3834824944236852</v>
+        <v>0.8911500917934634</v>
       </c>
       <c r="Q21" t="n">
-        <v>0.3834824944236852</v>
+        <v>0.6158054319398329</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -4728,7 +4728,7 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0.5483188805533163</v>
+        <v>1.078737689454639</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0.7775443160352293</v>
+        <v>2.093739899772196</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -4746,43 +4746,43 @@
         <v>0</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.8401680504168058</v>
+        <v>1.645595763880907</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>0.2357022603955158</v>
+        <v>0.4226269669662642</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.3233808333817774</v>
+        <v>0.765899524230326</v>
       </c>
       <c r="AE21" t="n">
-        <v>0.8401680504168059</v>
+        <v>1.717155114015896</v>
       </c>
       <c r="AF21" t="n">
-        <v>0.9582800496696</v>
+        <v>1.847416295819499</v>
       </c>
       <c r="AG21" t="n">
         <v>0</v>
       </c>
       <c r="AH21" t="n">
-        <v>2.182071930183956</v>
+        <v>5.319041378274592</v>
       </c>
       <c r="AI21" t="n">
-        <v>1.797783675471232</v>
+        <v>4.08854487449055</v>
       </c>
       <c r="AJ21" t="n">
-        <v>0.2357022603955158</v>
+        <v>0.4226269669662642</v>
       </c>
       <c r="AK21" t="n">
         <v>0</v>
       </c>
       <c r="AL21" t="n">
-        <v>1.041617645905367</v>
+        <v>2.1307668893719</v>
       </c>
       <c r="AM21" t="n">
-        <v>3.203857968504993</v>
+        <v>7.591707512219466</v>
       </c>
       <c r="AN21" t="n">
         <v>0</v>
@@ -4809,10 +4809,10 @@
         <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>0.3834824944236852</v>
+        <v>0.765899524230326</v>
       </c>
       <c r="AW21" t="n">
-        <v>0.2357022603955158</v>
+        <v>0.4226269669662643</v>
       </c>
       <c r="AX21" t="n">
         <v>0</v>
@@ -4824,7 +4824,7 @@
         <v>0</v>
       </c>
       <c r="BA21" t="n">
-        <v>0.3233808333817774</v>
+        <v>0.6158054319398329</v>
       </c>
       <c r="BB21" t="n">
         <v>0</v>
@@ -4851,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="BJ21" t="n">
-        <v>0.5483188805533163</v>
+        <v>1.175918945204707</v>
       </c>
       <c r="BK21" t="n">
         <v>0</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="BN21" t="n">
-        <v>0.2357022603955158</v>
+        <v>0.4226269669662642</v>
       </c>
       <c r="BO21" t="n">
         <v>0</v>
@@ -4875,41 +4875,41 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>max_red</t>
+          <t>max_amber</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4091089461488293</v>
+        <v>0.3013591544480977</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5961823611837771</v>
+        <v>0.4497526409010651</v>
       </c>
       <c r="D22" t="n">
-        <v>0.8639111701419702</v>
+        <v>0.672531433744662</v>
       </c>
       <c r="E22" t="n">
-        <v>0.5961823611837771</v>
+        <v>0.4497526409010651</v>
       </c>
       <c r="F22" t="n">
-        <v>2.147190120817159</v>
+        <v>1.865877281936178</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.483780816604389</v>
+        <v>1.138846424463964</v>
       </c>
       <c r="I22" t="n">
-        <v>1.483780816604389</v>
+        <v>1.138846424463964</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>6.287374569106575</v>
+        <v>6.748374856454966</v>
       </c>
       <c r="L22" t="n">
-        <v>15.62916960113539</v>
+        <v>13.33602762050409</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -4921,10 +4921,10 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0.7418904083021944</v>
+        <v>0.672531433744662</v>
       </c>
       <c r="Q22" t="n">
-        <v>0.7418904083021944</v>
+        <v>0.4497526409010651</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -4936,7 +4936,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.044700543052197</v>
+        <v>0.7975898321854458</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -4945,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.555205362941733</v>
+        <v>1.59190503122068</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -4954,43 +4954,43 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>1.593585408958542</v>
+        <v>1.2147109014108</v>
       </c>
       <c r="AB22" t="n">
         <v>0</v>
       </c>
       <c r="AC22" t="n">
-        <v>0.4091089461488293</v>
+        <v>0.3013591544480977</v>
       </c>
       <c r="AD22" t="n">
-        <v>0.5961823611837771</v>
+        <v>0.569423212231982</v>
       </c>
       <c r="AE22" t="n">
-        <v>1.593585408958542</v>
+        <v>1.282024977971382</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.715197852282178</v>
+        <v>1.349257922703196</v>
       </c>
       <c r="AG22" t="n">
         <v>0</v>
       </c>
       <c r="AH22" t="n">
-        <v>4.328663450831489</v>
+        <v>4.095047193359532</v>
       </c>
       <c r="AI22" t="n">
-        <v>3.752231068762403</v>
+        <v>3.157069132013308</v>
       </c>
       <c r="AJ22" t="n">
-        <v>0.4091089461488293</v>
+        <v>0.3013591544480977</v>
       </c>
       <c r="AK22" t="n">
         <v>0</v>
       </c>
       <c r="AL22" t="n">
-        <v>2.006870913302494</v>
+        <v>1.596981847816561</v>
       </c>
       <c r="AM22" t="n">
-        <v>6.972453619424156</v>
+        <v>5.904275596381606</v>
       </c>
       <c r="AN22" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>0.7418904083021944</v>
+        <v>0.569423212231982</v>
       </c>
       <c r="AW22" t="n">
-        <v>0.4091089461488293</v>
+        <v>0.3013591544480978</v>
       </c>
       <c r="AX22" t="n">
         <v>0</v>
@@ -5032,7 +5032,7 @@
         <v>0</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.5961823611837771</v>
+        <v>0.4497526409010651</v>
       </c>
       <c r="BB22" t="n">
         <v>0</v>
@@ -5059,7 +5059,7 @@
         <v>0</v>
       </c>
       <c r="BJ22" t="n">
-        <v>1.044700543052197</v>
+        <v>0.8819851791560791</v>
       </c>
       <c r="BK22" t="n">
         <v>0</v>
@@ -5071,220 +5071,12 @@
         <v>0</v>
       </c>
       <c r="BN22" t="n">
-        <v>0.4091089461488293</v>
+        <v>0.3013591544480977</v>
       </c>
       <c r="BO22" t="n">
         <v>0</v>
       </c>
       <c r="BP22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>max_amber</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>0.2912578159510714</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.4344919444928884</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.6500148541687208</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.4344919444928885</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1.598126747211439</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1.100298322180704</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1.100298322180704</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.895286749774755</v>
-      </c>
-      <c r="L23" t="n">
-        <v>11.97500195631248</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0.5501491610903518</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0.5501491610903518</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0.7705411027755386</v>
-      </c>
-      <c r="V23" t="n">
-        <v>0</v>
-      </c>
-      <c r="W23" t="n">
-        <v>0</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.166433204924118</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA23" t="n">
-        <v>1.173501383750139</v>
-      </c>
-      <c r="AB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC23" t="n">
-        <v>0.2912578159510714</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>0.4344919444928885</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>1.173501383750139</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>1.236057827447378</v>
-      </c>
-      <c r="AG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AH23" t="n">
-        <v>3.237627485739512</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>2.853339231026787</v>
-      </c>
-      <c r="AJ23" t="n">
-        <v>0.2912578159510714</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AL23" t="n">
-        <v>1.486062090349811</v>
-      </c>
-      <c r="AM23" t="n">
-        <v>5.37052463517166</v>
-      </c>
-      <c r="AN23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AT23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AU23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AV23" t="n">
-        <v>0.5501491610903518</v>
-      </c>
-      <c r="AW23" t="n">
-        <v>0.2912578159510714</v>
-      </c>
-      <c r="AX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AY23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AZ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA23" t="n">
-        <v>0.4344919444928885</v>
-      </c>
-      <c r="BB23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BC23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BI23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BJ23" t="n">
-        <v>0.7705411027755386</v>
-      </c>
-      <c r="BK23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BL23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BM23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BN23" t="n">
-        <v>0.2912578159510714</v>
-      </c>
-      <c r="BO23" t="n">
-        <v>0</v>
-      </c>
-      <c r="BP23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5299,7 +5091,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5322,24 +5114,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEWAN HOUSING</t>
+          <t>BANK OF BARODA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>weakness</t>
+          <t>['bullish', 'strengthening', 'loss', 'nosedive', 'regulators', 'default', 'debarred', 'stressed assets', 'downgrade']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DEWAN HOUSING</t>
+          <t>BHARTI AIRTEL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>default</t>
+          <t>['strong performance', 'bullish', 'vacate', 'per cent fall']</t>
         </is>
       </c>
     </row>
@@ -5351,547 +5143,79 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">downgrade </t>
+          <t>['weakness', 'default', 'downgrade ', 'vacate']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>DEWAN HOUSING</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vacate</t>
+          <t>['fine', 'weakness', 'regulators', 'downgrade ']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>ABB INDIA LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>bullish</t>
+          <t>[]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>OIL INDIA LTD.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>strengthening</t>
+          <t>['bullish', 'bearish', 'diversion']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>COAL INDIA LTD.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>['weakness', 'bearish']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>TATA MOTORS LTD.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>bearish</t>
+          <t>['bullish', 'violating', 'violated', 'weakness', 'weakening', 'scrapped', 'vacate']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>ICICI BANK LTD.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>nosedive</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>regulators</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>default</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>debarred</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>termination</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>concerned</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>stressed assets</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>BANK OF BARODA</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>downgrade</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>COAL INDIA</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>weakness</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>COAL INDIA</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>bearish</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>volume growth</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>strong performance</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>strengthening</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>gainer</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>fine</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">downgrade </t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>weakening</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>postpone</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>termination</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>dampened</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>concerned</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>stressed assets</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ICICI BANK LTD.</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>worst day</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>bullish</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>violating</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>violated</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>fine</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>weakness</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>weakening</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>termination</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>scrapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>TATA MOTORS LTD.</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>vacate</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>OIL INDIA LTD.</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>bullish</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>OIL INDIA LTD.</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>bearish</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>OIL INDIA LTD.</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>diversion</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>BHARTI AIRTEL LTD.</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>strong performance</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>BHARTI AIRTEL LTD.</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>bullish</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>BHARTI AIRTEL LTD.</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>vacate</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>BHARTI AIRTEL LTD.</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>per cent fall</t>
+          <t>['volume growth', 'strong performance', 'strengthening', 'gainer', 'loss', 'downgrade ', 'weakening', 'postpone', 'termination', 'dampened', 'concerned', 'stressed assets', 'worst day']</t>
         </is>
       </c>
     </row>
@@ -5929,108 +5253,108 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>DEWAN HOUSING</t>
+          <t>BANK OF BARODA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>downgrade</t>
+          <t>['termination', 'concerned']</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>BANK OF BARODA</t>
+          <t>BHARTI AIRTEL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>fine</t>
+          <t>['gainer']</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>COAL INDIA</t>
+          <t>DEWAN HOUSING</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>nosedive</t>
+          <t>['downgrade']</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ICICI BANK LTD.</t>
+          <t>WIPRO</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>downgrade</t>
+          <t>['loss', 'debarred', 'concerned', 'downgrade']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>TATA MOTORS LTD.</t>
+          <t>ABB INDIA LTD</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>gainer</t>
+          <t>['gainer']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TATA MOTORS LTD.</t>
+          <t>OIL INDIA LTD.</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>loss</t>
+          <t>['nosedive']</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TATA MOTORS LTD.</t>
+          <t>COAL INDIA LTD.</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>dampened</t>
+          <t>['nosedive']</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>OIL INDIA LTD.</t>
+          <t>TATA MOTORS LTD.</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>nosedive</t>
+          <t>['gainer', 'fine', 'loss', 'termination', 'dampened']</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>BHARTI AIRTEL LTD.</t>
+          <t>ICICI BANK LTD.</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>gainer</t>
+          <t>['fine', 'downgrade']</t>
         </is>
       </c>
     </row>
@@ -6045,7 +5369,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6070,21 +5394,21 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PI INDUSTRIES</t>
+          <t>CRISIL</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>CRISIL</t>
+          <t>PI INDUSTRIES</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>BHARTI AIRTEL</t>
+          <t>TATA MOTORS</t>
         </is>
       </c>
     </row>
@@ -6098,40 +5422,19 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>TATA MOTORS</t>
+          <t>INDIABULLS VENTURES LTD.</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>WIPRO</t>
+          <t>PIDILITE INDUSTRIES LTD.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
-        <is>
-          <t>BHARAT PETROLEUM CORPORATION</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>INDIABULLS VENTURES LTD.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>PIDILITE INDUSTRIES LTD.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
         <is>
           <t>TATA STEEL BSL LTD.</t>
         </is>
@@ -6148,7 +5451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP4"/>
+  <dimension ref="A1:BP5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6575,7 +5878,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>XYZ123</t>
+          <t>BHARAT PETROLEUM CORP</t>
         </is>
       </c>
       <c r="B3" t="inlineStr"/>
@@ -6649,7 +5952,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ATULYA123</t>
+          <t>XYZ123</t>
         </is>
       </c>
       <c r="B4" t="inlineStr"/>
@@ -6720,6 +6023,80 @@
       <c r="BO4" t="inlineStr"/>
       <c r="BP4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ATULYA123</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
+      <c r="C5" t="inlineStr"/>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="inlineStr"/>
+      <c r="AP5" t="inlineStr"/>
+      <c r="AQ5" t="inlineStr"/>
+      <c r="AR5" t="inlineStr"/>
+      <c r="AS5" t="inlineStr"/>
+      <c r="AT5" t="inlineStr"/>
+      <c r="AU5" t="inlineStr"/>
+      <c r="AV5" t="inlineStr"/>
+      <c r="AW5" t="inlineStr"/>
+      <c r="AX5" t="inlineStr"/>
+      <c r="AY5" t="inlineStr"/>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
+      <c r="BI5" t="inlineStr"/>
+      <c r="BJ5" t="inlineStr"/>
+      <c r="BK5" t="inlineStr"/>
+      <c r="BL5" t="inlineStr"/>
+      <c r="BM5" t="inlineStr"/>
+      <c r="BN5" t="inlineStr"/>
+      <c r="BO5" t="inlineStr"/>
+      <c r="BP5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
